--- a/data/trans_dic/P62-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P62-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>47,2; 72,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>30,88; 55,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>29,93; 53,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>45,59; 75,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>18,02; 34,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>20,78; 40,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>15,51; 34,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>35,53; 51,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>32,01; 48,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>27,03; 43,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>24,87; 39,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>42,7; 57,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>48,35; 60,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>44,97; 55,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>40,07; 50,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>54,54; 68,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>19,65; 27,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>26,95; 36,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>26,81; 36,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>36,33; 44,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>31,18; 37,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>36,79; 44,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>34,18; 40,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>46,13; 53,33</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>51,12; 61,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>36,86; 45,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>39,89; 48,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>48,11; 59,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>18,99; 25,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>24,25; 31,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,55; 30,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>30,58; 37,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>31,74; 37,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>31,07; 36,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>31,78; 37,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>38,64; 44,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,9%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>51,51; 63,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>34,26; 44,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>40,82; 51,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>53,95; 67,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,1; 30,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>22,79; 30,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>23,21; 31,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>35,29; 73,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>33,58; 40,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>29,07; 35,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>32,72; 39,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>46,03; 67,58</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,49%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>44,83; 54,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>42,94; 51,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>46,0; 54,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>46,02; 55,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>23,87; 30,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,1; 33,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>31,99; 39,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>36,03; 42,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>32,51; 38,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>34,81; 40,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>39,21; 44,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>41,72; 47,54</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,01%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>51,86; 57,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,74; 46,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>43,94; 48,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,29; 59,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,86; 26,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,22; 30,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,2; 32,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,06; 50,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,92; 38,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>44,77; 52,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,75%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>48,92%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,2; 72,72</t>
+          <t>50,58; 61,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,88; 55,04</t>
+          <t>44,57; 54,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 53,93</t>
+          <t>39,59; 49,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,59; 75,01</t>
+          <t>52,78; 65,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,02; 34,57</t>
+          <t>20,05; 27,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 40,39</t>
+          <t>27,56; 35,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 34,31</t>
+          <t>25,61; 34,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,53; 51,35</t>
+          <t>37,3; 44,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,01; 48,7</t>
+          <t>32,54; 39,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,03; 43,41</t>
+          <t>36,68; 43,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,87; 39,33</t>
+          <t>33,66; 40,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,7; 57,63</t>
+          <t>45,06; 52,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,31%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>41,02%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 60,97</t>
+          <t>51,12; 61,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 55,87</t>
+          <t>36,86; 45,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,07; 50,66</t>
+          <t>39,89; 48,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,54; 68,1</t>
+          <t>45,85; 57,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,65; 27,66</t>
+          <t>18,99; 25,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,95; 36,32</t>
+          <t>24,25; 31,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,81; 36,32</t>
+          <t>23,55; 30,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,33; 44,52</t>
+          <t>30,42; 36,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 37,93</t>
+          <t>31,74; 37,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,79; 44,07</t>
+          <t>31,07; 36,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,18; 40,94</t>
+          <t>31,78; 37,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,13; 53,33</t>
+          <t>37,99; 43,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>57,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>57,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>57,89%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,12; 61,28</t>
+          <t>51,51; 63,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,86; 45,09</t>
+          <t>34,26; 44,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,89; 48,13</t>
+          <t>40,82; 51,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,11; 59,45</t>
+          <t>50,87; 65,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,25</t>
+          <t>22,1; 30,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,2</t>
+          <t>22,79; 30,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,39</t>
+          <t>23,21; 31,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,58; 37,2</t>
+          <t>34,83; 82,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,74; 37,36</t>
+          <t>33,58; 40,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 36,29</t>
+          <t>29,07; 35,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,78; 37,44</t>
+          <t>32,72; 39,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,64; 44,38</t>
+          <t>45,11; 76,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,61%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>43,53%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 63,47</t>
+          <t>44,83; 54,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,26; 44,24</t>
+          <t>42,94; 51,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,82; 51,51</t>
+          <t>46,0; 54,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,95; 67,61</t>
+          <t>43,4; 53,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,1; 30,18</t>
+          <t>23,87; 30,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,58</t>
+          <t>27,1; 33,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,21; 31,77</t>
+          <t>31,99; 39,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,29; 73,64</t>
+          <t>35,97; 42,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 40,71</t>
+          <t>32,51; 38,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 35,27</t>
+          <t>34,81; 40,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 39,19</t>
+          <t>39,21; 44,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 67,58</t>
+          <t>40,59; 46,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>47,68%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,83; 54,99</t>
+          <t>51,86; 57,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,94; 51,69</t>
+          <t>41,74; 46,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,0; 54,58</t>
+          <t>43,94; 48,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,02; 55,94</t>
+          <t>50,83; 57,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,61</t>
+          <t>22,86; 26,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,84</t>
+          <t>27,22; 30,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,63</t>
+          <t>28,2; 32,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,03; 42,85</t>
+          <t>36,81; 59,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,51; 38,5</t>
+          <t>34,19; 37,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,81; 40,58</t>
+          <t>34,19; 37,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39,21; 44,81</t>
+          <t>35,92; 38,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,72; 47,54</t>
+          <t>44,09; 58,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>54,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>44,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,36%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>56,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>24,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>29,07%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>30,18%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,69%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>35,61%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>35,58%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>37,33%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>47,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>51,86; 57,12</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>41,74; 46,27</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>43,94; 48,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>53,29; 59,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,86; 26,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,22; 30,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>28,2; 32,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37,06; 50,73</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>34,19; 37,31</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>34,19; 37,12</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>35,92; 38,72</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>44,77; 52,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P62-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,58; 61,58</t>
+          <t>50,48; 61,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,57; 54,22</t>
+          <t>44,48; 54,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 49,68</t>
+          <t>39,91; 49,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,78; 65,84</t>
+          <t>53,03; 66,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,45</t>
+          <t>20,22; 27,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,56; 35,54</t>
+          <t>27,51; 36,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 34,03</t>
+          <t>25,84; 34,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,3; 44,53</t>
+          <t>37,52; 44,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 39,23</t>
+          <t>32,56; 38,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,68; 43,43</t>
+          <t>36,51; 43,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,66; 40,05</t>
+          <t>33,22; 39,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,06; 52,2</t>
+          <t>45,48; 52,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,12; 61,28</t>
+          <t>51,07; 61,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,86; 45,09</t>
+          <t>37,03; 45,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,89; 48,13</t>
+          <t>40,2; 47,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,85; 57,71</t>
+          <t>46,06; 57,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,25</t>
+          <t>18,7; 25,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,2</t>
+          <t>24,8; 31,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,55; 30,39</t>
+          <t>23,58; 30,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 36,96</t>
+          <t>30,11; 36,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,74; 37,36</t>
+          <t>31,66; 37,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 36,29</t>
+          <t>30,96; 36,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,78; 37,44</t>
+          <t>31,73; 37,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,86</t>
+          <t>37,88; 43,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,51; 63,47</t>
+          <t>51,43; 63,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,26; 44,24</t>
+          <t>34,0; 43,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,82; 51,51</t>
+          <t>41,54; 51,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,87; 65,41</t>
+          <t>51,51; 65,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 30,18</t>
+          <t>22,05; 30,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,58</t>
+          <t>22,72; 30,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 31,77</t>
+          <t>22,73; 31,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,83; 82,86</t>
+          <t>34,54; 79,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 40,71</t>
+          <t>34,39; 40,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,07; 35,27</t>
+          <t>29,27; 35,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,72; 39,19</t>
+          <t>32,72; 39,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,11; 76,15</t>
+          <t>44,91; 77,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,83; 54,99</t>
+          <t>44,87; 54,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,94; 51,69</t>
+          <t>42,77; 51,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,0; 54,58</t>
+          <t>45,77; 54,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,4; 53,99</t>
+          <t>43,75; 54,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,61</t>
+          <t>23,91; 31,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,84</t>
+          <t>26,8; 33,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,63</t>
+          <t>31,95; 39,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,97; 42,54</t>
+          <t>36,0; 42,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 38,5</t>
+          <t>32,64; 38,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 40,58</t>
+          <t>34,69; 40,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,21; 44,81</t>
+          <t>38,99; 44,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,59; 46,67</t>
+          <t>40,79; 46,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,86; 57,12</t>
+          <t>51,84; 57,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,74; 46,27</t>
+          <t>41,5; 46,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 48,4</t>
+          <t>44,11; 48,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,0</t>
+          <t>51,19; 57,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,49</t>
+          <t>22,8; 26,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,22; 30,93</t>
+          <t>27,18; 30,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,2; 32,06</t>
+          <t>28,31; 32,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,81; 59,16</t>
+          <t>36,79; 62,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,31</t>
+          <t>34,06; 37,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,12</t>
+          <t>34,16; 37,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,92; 38,72</t>
+          <t>35,94; 38,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,09; 58,57</t>
+          <t>44,09; 59,01</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que percibe algun tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>171110</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>212566</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>189492</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>179964</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>126647</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>165198</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>149121</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>170085</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>297758</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>377764</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>338613</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>350049</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>154013; 187581</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>191495; 233314</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>169843; 210487</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>159609; 198689</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>107193; 146372</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>143565; 188492</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>128700; 169890</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>155545; 186177</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>271926; 324874</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>347693; 409777</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>306849; 366904</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>325393; 374290</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>225328</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>246243</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>264615</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>198172</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>153384</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>209750</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>203855</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>184788</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>378712</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>455992</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>468470</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>382961</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>204677; 244465</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>222923; 272659</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>241909; 288572</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>176088; 219526</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>130997; 177415</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>186607; 235893</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>177724; 228152</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>165927; 202427</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>348766; 412530</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>419335; 494395</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>430060; 505470</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>353565; 410652</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>155381</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>168741</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>182071</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>200866</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120783</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>147873</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>138296</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>349752</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>276164</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316614</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>320367</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>550618</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>138722; 171705</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>146960; 190094</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>161958; 201000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>177529; 225080</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>102800; 141388</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>126977; 172145</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>114827; 159059</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>209446; 484548</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>253043; 301389</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>290151; 349073</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>292860; 352745</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>427172; 737949</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189860</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>244670</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>266047</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>222468</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>177316</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>225397</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>250749</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>238337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>367176</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>470068</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>516796</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>460805</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>172207; 208772</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>220957; 266636</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>242085; 288113</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>197975; 248026</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>155324; 201530</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>198368; 250195</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224103; 277667</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>218184; 258538</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>337262; 398298</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>435918; 508495</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>479725; 548847</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>431759; 491978</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>741679</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>872220</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>902225</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>801470</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>578130</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>748218</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>742021</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>942962</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1319809</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1620438</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1644246</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1744432</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>704703; 777999</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>822352; 917084</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>858465; 945068</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>757945; 846187</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>535011; 619576</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>699546; 792414</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>695881; 792794</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>801281; 1350692</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1262052; 1379693</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1556186; 1691213</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1583199; 1710332</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1612998; 2158940</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>